--- a/Dateien/Zeitplan.xlsx
+++ b/Dateien/Zeitplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\SOL_Projekt\Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879DD3EA-8E5E-4537-A22E-CF977BAEACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECF11F9-A496-43EA-BE62-5A85ED440273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F171C3D0-C180-430D-8BB6-45701F4434B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F171C3D0-C180-430D-8BB6-45701F4434B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Schritt</t>
   </si>
@@ -47,15 +47,6 @@
     <t>Technologieauswahl</t>
   </si>
   <si>
-    <t>Frontend</t>
-  </si>
-  <si>
-    <t>Backend</t>
-  </si>
-  <si>
-    <t>Verbindung Front- und Backend</t>
-  </si>
-  <si>
     <t>Dokumentation</t>
   </si>
   <si>
@@ -63,6 +54,51 @@
   </si>
   <si>
     <t>Zeit effektiv (in Lektionen)</t>
+  </si>
+  <si>
+    <t>Mockup</t>
+  </si>
+  <si>
+    <t>aufgaben frontend</t>
+  </si>
+  <si>
+    <t>aufgaben js</t>
+  </si>
+  <si>
+    <t>styles css</t>
+  </si>
+  <si>
+    <t>bootstraps implementierung</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>CRUD funktionen</t>
+  </si>
+  <si>
+    <t>swagger implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testen </t>
+  </si>
+  <si>
+    <t>übersicht frontend</t>
+  </si>
+  <si>
+    <t>übersicht js</t>
+  </si>
+  <si>
+    <t>verbindung mit DB</t>
+  </si>
+  <si>
+    <t>verbindung mit Frontend</t>
+  </si>
+  <si>
+    <t>testing mit frontend</t>
+  </si>
+  <si>
+    <t>index.html</t>
   </si>
 </sst>
 </file>
@@ -443,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70A87EE-FD85-4488-AD81-F2DF0E955591}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -472,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -486,45 +522,183 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
